--- a/Resources/Data/Excel/input/EcoSystems/SmartKG_ecosystem_2.xlsx
+++ b/Resources/Data/Excel/input/EcoSystems/SmartKG_ecosystem_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\source\github\SmartKG\Resources\Data\Excel\input\EcoSystems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E412A4-7579-4B60-A58F-3365F34306A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C4A8C-B795-434E-BA30-695A1C15249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{9341B09D-3988-4A3F-AA36-06EAE81D669B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{9341B09D-3988-4A3F-AA36-06EAE81D669B}"/>
   </bookViews>
   <sheets>
     <sheet name="Vertexes" sheetId="4" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>鬣狗</t>
   </si>
   <si>
-    <t>Crocuta crocuta</t>
-  </si>
-  <si>
     <t>腐肉</t>
   </si>
   <si>
@@ -532,6 +529,10 @@
   </si>
   <si>
     <t>食用</t>
+  </si>
+  <si>
+    <t>Crocuta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -985,11 +986,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364B1DF4-E67D-4EA6-BFF1-647993166688}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -1002,31 +1006,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1142,7 +1146,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -1332,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>4</v>
@@ -1344,31 +1348,31 @@
         <v>5</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -1380,31 +1384,31 @@
         <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>4</v>
@@ -1416,21 +1420,21 @@
         <v>5</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -1440,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -1458,15 +1462,15 @@
         <v>6</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1476,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>4</v>
@@ -1494,25 +1498,25 @@
         <v>6</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
@@ -1524,21 +1528,21 @@
         <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -1548,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>4</v>
@@ -1566,15 +1570,15 @@
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1584,7 +1588,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>4</v>
@@ -1602,15 +1606,15 @@
         <v>6</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -1620,13 +1624,13 @@
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>5</v>
@@ -1638,15 +1642,15 @@
         <v>6</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -1656,13 +1660,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>5</v>
@@ -1674,15 +1678,15 @@
         <v>6</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1692,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>4</v>
@@ -1704,73 +1708,73 @@
         <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>5</v>
@@ -1782,12 +1786,12 @@
         <v>6</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
@@ -1800,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
@@ -1823,10 +1827,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1836,13 +1840,13 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>5</v>
@@ -1854,25 +1858,25 @@
         <v>6</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>4</v>
@@ -1884,31 +1888,31 @@
         <v>5</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>4</v>
@@ -1926,51 +1930,51 @@
         <v>6</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="I27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -1980,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
@@ -1998,15 +2002,15 @@
         <v>6</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -2016,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
@@ -2034,15 +2038,15 @@
         <v>6</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -2052,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
@@ -2070,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D085EBF-4D60-4286-BFEE-410E53135A40}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
@@ -2091,18 +2095,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -2113,7 +2117,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -2124,7 +2128,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>42</v>
@@ -2135,7 +2139,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
@@ -2146,18 +2150,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -2168,87 +2172,87 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2256,120 +2260,120 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>38</v>
@@ -2377,54 +2381,54 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>24</v>
@@ -2432,10 +2436,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>38</v>
@@ -2443,62 +2447,62 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
@@ -2509,18 +2513,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
@@ -2531,40 +2535,40 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>14</v>
@@ -2575,7 +2579,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>20</v>
@@ -2586,7 +2590,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>38</v>
@@ -2597,32 +2601,32 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>24</v>
@@ -2630,10 +2634,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>24</v>
@@ -2641,10 +2645,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>24</v>
@@ -2652,10 +2656,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>24</v>
@@ -2663,65 +2667,65 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>24</v>

--- a/Resources/Data/Excel/input/EcoSystems/SmartKG_ecosystem_2.xlsx
+++ b/Resources/Data/Excel/input/EcoSystems/SmartKG_ecosystem_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\source\github\SmartKG\Resources\Data\Excel\input\EcoSystems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C4A8C-B795-434E-BA30-695A1C15249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B6E04-6D5D-433D-87D4-7FE887BD8C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{9341B09D-3988-4A3F-AA36-06EAE81D669B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{9341B09D-3988-4A3F-AA36-06EAE81D669B}"/>
   </bookViews>
   <sheets>
     <sheet name="Vertexes" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="158">
   <si>
     <t>实体id</t>
   </si>
@@ -508,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狐獴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蚁丘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,18 +516,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 草 </t>
+    <t>食用</t>
+  </si>
+  <si>
+    <t>Crocuta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 鹰 </t>
+    <t xml:space="preserve">  草  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食用</t>
-  </si>
-  <si>
-    <t>Crocuta</t>
+    <t xml:space="preserve">  獴  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  鹰  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eagle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +652,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364B1DF4-E67D-4EA6-BFF1-647993166688}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1153,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -1336,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>4</v>
@@ -1686,7 +1693,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1758,7 +1765,7 @@
         <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>57</v>
@@ -1938,7 +1945,7 @@
         <v>119</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>120</v>
@@ -2010,7 +2017,7 @@
         <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -2085,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D085EBF-4D60-4286-BFEE-410E53135A40}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2414,35 +2421,35 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>24</v>
+      <c r="A31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>38</v>
+      <c r="A32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2450,10 +2457,10 @@
         <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2468,272 +2475,239 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>82</v>
+      <c r="C36" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>75</v>
+      <c r="A41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="6" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="7" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="A49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>24</v>
+      <c r="A50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>127</v>
+      <c r="A54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>61</v>
+      <c r="A55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="7" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
-    <sortCondition ref="A1:A56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
+    <sortCondition ref="A1:A53"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
